--- a/Arquivos/acesso_pagina.xlsx
+++ b/Arquivos/acesso_pagina.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5dde4ea31a779cd/Documentos/Mestrado/Arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="301" documentId="8_{307E4E81-C6CB-4C75-A70B-340C66C21BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34DCDD1A-0CDA-480B-AFD6-59A453E957BA}"/>
+  <xr:revisionPtr revIDLastSave="521" documentId="8_{307E4E81-C6CB-4C75-A70B-340C66C21BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6D05102-9749-4AFA-9A49-C3ABAAEEB520}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EDD8297D-2B60-4420-B95B-ABA330B02DB5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="90">
   <si>
     <t>Extenso</t>
   </si>
@@ -255,6 +255,57 @@
   </si>
   <si>
     <t>Brasileiro</t>
+  </si>
+  <si>
+    <t>Fluminense x Cerro Portenho</t>
+  </si>
+  <si>
+    <t>Fluminense x Corinthians</t>
+  </si>
+  <si>
+    <t>Especiais Estadios</t>
+  </si>
+  <si>
+    <t>Fluminense x Sampaio Correa</t>
+  </si>
+  <si>
+    <t>Fluminense x Atlético MG</t>
+  </si>
+  <si>
+    <t>Kleber Andrade</t>
+  </si>
+  <si>
+    <t>Especiais jogos</t>
+  </si>
+  <si>
+    <t>Fluminense x São Paulo</t>
+  </si>
+  <si>
+    <t>Morumbi</t>
+  </si>
+  <si>
+    <t>Artilheiros na libertadores</t>
+  </si>
+  <si>
+    <t>Contusões por ano</t>
+  </si>
+  <si>
+    <t>Vitória nos 2 turnos</t>
+  </si>
+  <si>
+    <t>Especiais Técnico</t>
+  </si>
+  <si>
+    <t>Fluminense x Juventude</t>
+  </si>
+  <si>
+    <t>Tecnicos com mais títulos</t>
+  </si>
+  <si>
+    <t>Tecnicos</t>
+  </si>
+  <si>
+    <t>Nery 1911</t>
   </si>
 </sst>
 </file>
@@ -630,11 +681,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D98800B-829A-491C-81A6-D8AEB8CDBB7D}">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A105" sqref="A105"/>
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F153" sqref="F153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3123,11 +3174,11 @@
         <v>35</v>
       </c>
       <c r="F89" t="str">
-        <f t="shared" ref="F89:F104" si="12">_xlfn.CONCAT(RIGHT(A89,2),"/",MID(A89,5,2),"/",LEFT(A89,4))</f>
+        <f t="shared" ref="F89:F105" si="12">_xlfn.CONCAT(RIGHT(A89,2),"/",MID(A89,5,2),"/",LEFT(A89,4))</f>
         <v>08/04/2024</v>
       </c>
       <c r="G89" t="str">
-        <f t="shared" ref="G89:G104" si="13">_xlfn.CONCAT(RIGHT(B89,2),"/",MID(B89,5,2),"/",LEFT(B89,4))</f>
+        <f t="shared" ref="G89:G105" si="13">_xlfn.CONCAT(RIGHT(B89,2),"/",MID(B89,5,2),"/",LEFT(B89,4))</f>
         <v>14/04/2024</v>
       </c>
       <c r="H89">
@@ -3552,6 +3603,1546 @@
       </c>
       <c r="H104">
         <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>20240422</v>
+      </c>
+      <c r="B105">
+        <v>20240428</v>
+      </c>
+      <c r="C105" t="s">
+        <v>73</v>
+      </c>
+      <c r="D105">
+        <v>26</v>
+      </c>
+      <c r="E105" t="s">
+        <v>35</v>
+      </c>
+      <c r="F105" t="str">
+        <f t="shared" si="12"/>
+        <v>22/04/2024</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="13"/>
+        <v>28/04/2024</v>
+      </c>
+      <c r="H105">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>20240422</v>
+      </c>
+      <c r="B106">
+        <v>20240428</v>
+      </c>
+      <c r="C106" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106">
+        <v>13</v>
+      </c>
+      <c r="E106" t="s">
+        <v>39</v>
+      </c>
+      <c r="F106" t="str">
+        <f t="shared" ref="F106:F114" si="14">_xlfn.CONCAT(RIGHT(A106,2),"/",MID(A106,5,2),"/",LEFT(A106,4))</f>
+        <v>22/04/2024</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" ref="G106:G114" si="15">_xlfn.CONCAT(RIGHT(B106,2),"/",MID(B106,5,2),"/",LEFT(B106,4))</f>
+        <v>28/04/2024</v>
+      </c>
+      <c r="H106">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>20240422</v>
+      </c>
+      <c r="B107">
+        <v>20240428</v>
+      </c>
+      <c r="C107" t="s">
+        <v>74</v>
+      </c>
+      <c r="D107">
+        <v>13</v>
+      </c>
+      <c r="E107" t="s">
+        <v>35</v>
+      </c>
+      <c r="F107" t="str">
+        <f t="shared" si="14"/>
+        <v>22/04/2024</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="15"/>
+        <v>28/04/2024</v>
+      </c>
+      <c r="H107">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>20240422</v>
+      </c>
+      <c r="B108">
+        <v>20240428</v>
+      </c>
+      <c r="C108" t="s">
+        <v>26</v>
+      </c>
+      <c r="D108">
+        <v>10</v>
+      </c>
+      <c r="E108" t="s">
+        <v>39</v>
+      </c>
+      <c r="F108" t="str">
+        <f t="shared" si="14"/>
+        <v>22/04/2024</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="15"/>
+        <v>28/04/2024</v>
+      </c>
+      <c r="H108">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>20240422</v>
+      </c>
+      <c r="B109">
+        <v>20240428</v>
+      </c>
+      <c r="C109" t="s">
+        <v>75</v>
+      </c>
+      <c r="D109">
+        <v>8</v>
+      </c>
+      <c r="E109" t="s">
+        <v>39</v>
+      </c>
+      <c r="F109" t="str">
+        <f t="shared" si="14"/>
+        <v>22/04/2024</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="15"/>
+        <v>28/04/2024</v>
+      </c>
+      <c r="H109">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>20240422</v>
+      </c>
+      <c r="B110">
+        <v>20240428</v>
+      </c>
+      <c r="C110" t="s">
+        <v>57</v>
+      </c>
+      <c r="D110">
+        <v>4</v>
+      </c>
+      <c r="E110" t="s">
+        <v>39</v>
+      </c>
+      <c r="F110" t="str">
+        <f t="shared" si="14"/>
+        <v>22/04/2024</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="15"/>
+        <v>28/04/2024</v>
+      </c>
+      <c r="H110">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>20240422</v>
+      </c>
+      <c r="B111">
+        <v>20240428</v>
+      </c>
+      <c r="C111" t="s">
+        <v>54</v>
+      </c>
+      <c r="D111">
+        <v>3</v>
+      </c>
+      <c r="E111" t="s">
+        <v>39</v>
+      </c>
+      <c r="F111" t="str">
+        <f t="shared" si="14"/>
+        <v>22/04/2024</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="15"/>
+        <v>28/04/2024</v>
+      </c>
+      <c r="H111">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>20240422</v>
+      </c>
+      <c r="B112">
+        <v>20240428</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>39</v>
+      </c>
+      <c r="F112" t="str">
+        <f t="shared" si="14"/>
+        <v>22/04/2024</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="15"/>
+        <v>28/04/2024</v>
+      </c>
+      <c r="H112">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>20240422</v>
+      </c>
+      <c r="B113">
+        <v>20240428</v>
+      </c>
+      <c r="C113" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>35</v>
+      </c>
+      <c r="F113" t="str">
+        <f t="shared" si="14"/>
+        <v>22/04/2024</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="15"/>
+        <v>28/04/2024</v>
+      </c>
+      <c r="H113">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>20240429</v>
+      </c>
+      <c r="B114">
+        <v>20240505</v>
+      </c>
+      <c r="C114" t="s">
+        <v>76</v>
+      </c>
+      <c r="D114">
+        <v>22</v>
+      </c>
+      <c r="E114" t="s">
+        <v>35</v>
+      </c>
+      <c r="F114" t="str">
+        <f t="shared" si="14"/>
+        <v>29/04/2024</v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="15"/>
+        <v>05/05/2024</v>
+      </c>
+      <c r="H114">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>20240429</v>
+      </c>
+      <c r="B115">
+        <v>20240505</v>
+      </c>
+      <c r="C115" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115">
+        <v>18</v>
+      </c>
+      <c r="E115" t="s">
+        <v>39</v>
+      </c>
+      <c r="F115" t="str">
+        <f t="shared" ref="F115:F123" si="16">_xlfn.CONCAT(RIGHT(A115,2),"/",MID(A115,5,2),"/",LEFT(A115,4))</f>
+        <v>29/04/2024</v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" ref="G115:G123" si="17">_xlfn.CONCAT(RIGHT(B115,2),"/",MID(B115,5,2),"/",LEFT(B115,4))</f>
+        <v>05/05/2024</v>
+      </c>
+      <c r="H115">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>20240429</v>
+      </c>
+      <c r="B116">
+        <v>20240505</v>
+      </c>
+      <c r="C116" t="s">
+        <v>77</v>
+      </c>
+      <c r="D116">
+        <v>17</v>
+      </c>
+      <c r="E116" t="s">
+        <v>35</v>
+      </c>
+      <c r="F116" t="str">
+        <f t="shared" si="16"/>
+        <v>29/04/2024</v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="17"/>
+        <v>05/05/2024</v>
+      </c>
+      <c r="H116">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>20240429</v>
+      </c>
+      <c r="B117">
+        <v>20240505</v>
+      </c>
+      <c r="C117" t="s">
+        <v>78</v>
+      </c>
+      <c r="D117">
+        <v>14</v>
+      </c>
+      <c r="E117" t="s">
+        <v>71</v>
+      </c>
+      <c r="F117" t="str">
+        <f t="shared" si="16"/>
+        <v>29/04/2024</v>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="17"/>
+        <v>05/05/2024</v>
+      </c>
+      <c r="H117">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>20240429</v>
+      </c>
+      <c r="B118">
+        <v>20240505</v>
+      </c>
+      <c r="C118" t="s">
+        <v>26</v>
+      </c>
+      <c r="D118">
+        <v>7</v>
+      </c>
+      <c r="E118" t="s">
+        <v>39</v>
+      </c>
+      <c r="F118" t="str">
+        <f t="shared" si="16"/>
+        <v>29/04/2024</v>
+      </c>
+      <c r="G118" t="str">
+        <f t="shared" si="17"/>
+        <v>05/05/2024</v>
+      </c>
+      <c r="H118">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>20240429</v>
+      </c>
+      <c r="B119">
+        <v>20240505</v>
+      </c>
+      <c r="C119" t="s">
+        <v>75</v>
+      </c>
+      <c r="D119">
+        <v>4</v>
+      </c>
+      <c r="E119" t="s">
+        <v>39</v>
+      </c>
+      <c r="F119" t="str">
+        <f t="shared" si="16"/>
+        <v>29/04/2024</v>
+      </c>
+      <c r="G119" t="str">
+        <f t="shared" si="17"/>
+        <v>05/05/2024</v>
+      </c>
+      <c r="H119">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>20240429</v>
+      </c>
+      <c r="B120">
+        <v>20240505</v>
+      </c>
+      <c r="C120" t="s">
+        <v>57</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
+      </c>
+      <c r="E120" t="s">
+        <v>39</v>
+      </c>
+      <c r="F120" t="str">
+        <f t="shared" si="16"/>
+        <v>29/04/2024</v>
+      </c>
+      <c r="G120" t="str">
+        <f t="shared" si="17"/>
+        <v>05/05/2024</v>
+      </c>
+      <c r="H120">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>20240429</v>
+      </c>
+      <c r="B121">
+        <v>20240505</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121" t="s">
+        <v>39</v>
+      </c>
+      <c r="F121" t="str">
+        <f t="shared" si="16"/>
+        <v>29/04/2024</v>
+      </c>
+      <c r="G121" t="str">
+        <f t="shared" si="17"/>
+        <v>05/05/2024</v>
+      </c>
+      <c r="H121">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>20240429</v>
+      </c>
+      <c r="B122">
+        <v>20240505</v>
+      </c>
+      <c r="C122" t="s">
+        <v>54</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122" t="s">
+        <v>39</v>
+      </c>
+      <c r="F122" t="str">
+        <f t="shared" si="16"/>
+        <v>29/04/2024</v>
+      </c>
+      <c r="G122" t="str">
+        <f t="shared" si="17"/>
+        <v>05/05/2024</v>
+      </c>
+      <c r="H122">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>20240506</v>
+      </c>
+      <c r="B123">
+        <v>20240512</v>
+      </c>
+      <c r="C123" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123">
+        <v>22</v>
+      </c>
+      <c r="E123" t="s">
+        <v>39</v>
+      </c>
+      <c r="F123" t="str">
+        <f t="shared" si="16"/>
+        <v>06/05/2024</v>
+      </c>
+      <c r="G123" t="str">
+        <f t="shared" si="17"/>
+        <v>12/05/2024</v>
+      </c>
+      <c r="H123">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>20240506</v>
+      </c>
+      <c r="B124">
+        <v>20240512</v>
+      </c>
+      <c r="C124" t="s">
+        <v>61</v>
+      </c>
+      <c r="D124">
+        <v>12</v>
+      </c>
+      <c r="E124" t="s">
+        <v>35</v>
+      </c>
+      <c r="F124" t="str">
+        <f t="shared" ref="F124:F132" si="18">_xlfn.CONCAT(RIGHT(A124,2),"/",MID(A124,5,2),"/",LEFT(A124,4))</f>
+        <v>06/05/2024</v>
+      </c>
+      <c r="G124" t="str">
+        <f t="shared" ref="G124:G132" si="19">_xlfn.CONCAT(RIGHT(B124,2),"/",MID(B124,5,2),"/",LEFT(B124,4))</f>
+        <v>12/05/2024</v>
+      </c>
+      <c r="H124">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>20240506</v>
+      </c>
+      <c r="B125">
+        <v>20240512</v>
+      </c>
+      <c r="C125" t="s">
+        <v>79</v>
+      </c>
+      <c r="D125">
+        <v>9</v>
+      </c>
+      <c r="E125" t="s">
+        <v>39</v>
+      </c>
+      <c r="F125" t="str">
+        <f t="shared" si="18"/>
+        <v>06/05/2024</v>
+      </c>
+      <c r="G125" t="str">
+        <f t="shared" si="19"/>
+        <v>12/05/2024</v>
+      </c>
+      <c r="H125">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>20240506</v>
+      </c>
+      <c r="B126">
+        <v>20240512</v>
+      </c>
+      <c r="C126" t="s">
+        <v>80</v>
+      </c>
+      <c r="D126">
+        <v>9</v>
+      </c>
+      <c r="E126" t="s">
+        <v>35</v>
+      </c>
+      <c r="F126" t="str">
+        <f t="shared" si="18"/>
+        <v>06/05/2024</v>
+      </c>
+      <c r="G126" t="str">
+        <f t="shared" si="19"/>
+        <v>12/05/2024</v>
+      </c>
+      <c r="H126">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>20240506</v>
+      </c>
+      <c r="B127">
+        <v>20240512</v>
+      </c>
+      <c r="C127" t="s">
+        <v>57</v>
+      </c>
+      <c r="D127">
+        <v>8</v>
+      </c>
+      <c r="E127" t="s">
+        <v>39</v>
+      </c>
+      <c r="F127" t="str">
+        <f t="shared" si="18"/>
+        <v>06/05/2024</v>
+      </c>
+      <c r="G127" t="str">
+        <f t="shared" si="19"/>
+        <v>12/05/2024</v>
+      </c>
+      <c r="H127">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>20240506</v>
+      </c>
+      <c r="B128">
+        <v>20240512</v>
+      </c>
+      <c r="C128" t="s">
+        <v>26</v>
+      </c>
+      <c r="D128">
+        <v>7</v>
+      </c>
+      <c r="E128" t="s">
+        <v>39</v>
+      </c>
+      <c r="F128" t="str">
+        <f t="shared" si="18"/>
+        <v>06/05/2024</v>
+      </c>
+      <c r="G128" t="str">
+        <f t="shared" si="19"/>
+        <v>12/05/2024</v>
+      </c>
+      <c r="H128">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>20240506</v>
+      </c>
+      <c r="B129">
+        <v>20240512</v>
+      </c>
+      <c r="C129" t="s">
+        <v>81</v>
+      </c>
+      <c r="D129">
+        <v>4</v>
+      </c>
+      <c r="E129" t="s">
+        <v>71</v>
+      </c>
+      <c r="F129" t="str">
+        <f t="shared" si="18"/>
+        <v>06/05/2024</v>
+      </c>
+      <c r="G129" t="str">
+        <f t="shared" si="19"/>
+        <v>12/05/2024</v>
+      </c>
+      <c r="H129">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>20240506</v>
+      </c>
+      <c r="B130">
+        <v>20240512</v>
+      </c>
+      <c r="C130" t="s">
+        <v>82</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+      <c r="E130" t="s">
+        <v>37</v>
+      </c>
+      <c r="F130" t="str">
+        <f t="shared" si="18"/>
+        <v>06/05/2024</v>
+      </c>
+      <c r="G130" t="str">
+        <f t="shared" si="19"/>
+        <v>12/05/2024</v>
+      </c>
+      <c r="H130">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>20240506</v>
+      </c>
+      <c r="B131">
+        <v>20240512</v>
+      </c>
+      <c r="C131" t="s">
+        <v>75</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131" t="s">
+        <v>39</v>
+      </c>
+      <c r="F131" t="str">
+        <f t="shared" si="18"/>
+        <v>06/05/2024</v>
+      </c>
+      <c r="G131" t="str">
+        <f t="shared" si="19"/>
+        <v>12/05/2024</v>
+      </c>
+      <c r="H131">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>20240513</v>
+      </c>
+      <c r="B132">
+        <v>20240519</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132">
+        <v>22</v>
+      </c>
+      <c r="E132" t="s">
+        <v>39</v>
+      </c>
+      <c r="F132" t="str">
+        <f t="shared" si="18"/>
+        <v>13/05/2024</v>
+      </c>
+      <c r="G132" t="str">
+        <f t="shared" si="19"/>
+        <v>19/05/2024</v>
+      </c>
+      <c r="H132">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>20240513</v>
+      </c>
+      <c r="B133">
+        <v>20240519</v>
+      </c>
+      <c r="C133" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133">
+        <v>18</v>
+      </c>
+      <c r="E133" t="s">
+        <v>39</v>
+      </c>
+      <c r="F133" t="str">
+        <f t="shared" ref="F133:F141" si="20">_xlfn.CONCAT(RIGHT(A133,2),"/",MID(A133,5,2),"/",LEFT(A133,4))</f>
+        <v>13/05/2024</v>
+      </c>
+      <c r="G133" t="str">
+        <f t="shared" ref="G133:G141" si="21">_xlfn.CONCAT(RIGHT(B133,2),"/",MID(B133,5,2),"/",LEFT(B133,4))</f>
+        <v>19/05/2024</v>
+      </c>
+      <c r="H133">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>20240513</v>
+      </c>
+      <c r="B134">
+        <v>20240519</v>
+      </c>
+      <c r="C134" t="s">
+        <v>73</v>
+      </c>
+      <c r="D134">
+        <v>14</v>
+      </c>
+      <c r="E134" t="s">
+        <v>35</v>
+      </c>
+      <c r="F134" t="str">
+        <f t="shared" si="20"/>
+        <v>13/05/2024</v>
+      </c>
+      <c r="G134" t="str">
+        <f t="shared" si="21"/>
+        <v>19/05/2024</v>
+      </c>
+      <c r="H134">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>20240513</v>
+      </c>
+      <c r="B135">
+        <v>20240519</v>
+      </c>
+      <c r="C135" t="s">
+        <v>83</v>
+      </c>
+      <c r="D135">
+        <v>12</v>
+      </c>
+      <c r="E135" t="s">
+        <v>40</v>
+      </c>
+      <c r="F135" t="str">
+        <f t="shared" si="20"/>
+        <v>13/05/2024</v>
+      </c>
+      <c r="G135" t="str">
+        <f t="shared" si="21"/>
+        <v>19/05/2024</v>
+      </c>
+      <c r="H135">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>20240513</v>
+      </c>
+      <c r="B136">
+        <v>20240519</v>
+      </c>
+      <c r="C136" t="s">
+        <v>84</v>
+      </c>
+      <c r="D136">
+        <v>8</v>
+      </c>
+      <c r="E136" t="s">
+        <v>56</v>
+      </c>
+      <c r="F136" t="str">
+        <f t="shared" si="20"/>
+        <v>13/05/2024</v>
+      </c>
+      <c r="G136" t="str">
+        <f t="shared" si="21"/>
+        <v>19/05/2024</v>
+      </c>
+      <c r="H136">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>20240513</v>
+      </c>
+      <c r="B137">
+        <v>20240519</v>
+      </c>
+      <c r="C137" t="s">
+        <v>31</v>
+      </c>
+      <c r="D137">
+        <v>7</v>
+      </c>
+      <c r="E137" t="s">
+        <v>39</v>
+      </c>
+      <c r="F137" t="str">
+        <f t="shared" si="20"/>
+        <v>13/05/2024</v>
+      </c>
+      <c r="G137" t="str">
+        <f t="shared" si="21"/>
+        <v>19/05/2024</v>
+      </c>
+      <c r="H137">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>20240513</v>
+      </c>
+      <c r="B138">
+        <v>20240519</v>
+      </c>
+      <c r="C138" t="s">
+        <v>54</v>
+      </c>
+      <c r="D138">
+        <v>6</v>
+      </c>
+      <c r="E138" t="s">
+        <v>39</v>
+      </c>
+      <c r="F138" t="str">
+        <f t="shared" si="20"/>
+        <v>13/05/2024</v>
+      </c>
+      <c r="G138" t="str">
+        <f t="shared" si="21"/>
+        <v>19/05/2024</v>
+      </c>
+      <c r="H138">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>20240513</v>
+      </c>
+      <c r="B139">
+        <v>20240519</v>
+      </c>
+      <c r="C139" t="s">
+        <v>80</v>
+      </c>
+      <c r="D139">
+        <v>6</v>
+      </c>
+      <c r="E139" t="s">
+        <v>35</v>
+      </c>
+      <c r="F139" t="str">
+        <f t="shared" si="20"/>
+        <v>13/05/2024</v>
+      </c>
+      <c r="G139" t="str">
+        <f t="shared" si="21"/>
+        <v>19/05/2024</v>
+      </c>
+      <c r="H139">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>20240513</v>
+      </c>
+      <c r="B140">
+        <v>20240519</v>
+      </c>
+      <c r="C140" t="s">
+        <v>81</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140" t="s">
+        <v>42</v>
+      </c>
+      <c r="F140" t="str">
+        <f t="shared" si="20"/>
+        <v>13/05/2024</v>
+      </c>
+      <c r="G140" t="str">
+        <f t="shared" si="21"/>
+        <v>19/05/2024</v>
+      </c>
+      <c r="H140">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>20240520</v>
+      </c>
+      <c r="B141">
+        <v>20240526</v>
+      </c>
+      <c r="C141" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141">
+        <v>22</v>
+      </c>
+      <c r="E141" t="s">
+        <v>39</v>
+      </c>
+      <c r="F141" t="str">
+        <f t="shared" si="20"/>
+        <v>20/05/2024</v>
+      </c>
+      <c r="G141" t="str">
+        <f t="shared" si="21"/>
+        <v>26/05/2024</v>
+      </c>
+      <c r="H141">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>20240520</v>
+      </c>
+      <c r="B142">
+        <v>20240526</v>
+      </c>
+      <c r="C142" t="s">
+        <v>85</v>
+      </c>
+      <c r="D142">
+        <v>15</v>
+      </c>
+      <c r="E142" t="s">
+        <v>39</v>
+      </c>
+      <c r="F142" t="str">
+        <f t="shared" ref="F142:F151" si="22">_xlfn.CONCAT(RIGHT(A142,2),"/",MID(A142,5,2),"/",LEFT(A142,4))</f>
+        <v>20/05/2024</v>
+      </c>
+      <c r="G142" t="str">
+        <f t="shared" ref="G142:G151" si="23">_xlfn.CONCAT(RIGHT(B142,2),"/",MID(B142,5,2),"/",LEFT(B142,4))</f>
+        <v>26/05/2024</v>
+      </c>
+      <c r="H142">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>20240520</v>
+      </c>
+      <c r="B143">
+        <v>20240526</v>
+      </c>
+      <c r="C143" t="s">
+        <v>76</v>
+      </c>
+      <c r="D143">
+        <v>14</v>
+      </c>
+      <c r="E143" t="s">
+        <v>35</v>
+      </c>
+      <c r="F143" t="str">
+        <f t="shared" si="22"/>
+        <v>20/05/2024</v>
+      </c>
+      <c r="G143" t="str">
+        <f t="shared" si="23"/>
+        <v>26/05/2024</v>
+      </c>
+      <c r="H143">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>20240520</v>
+      </c>
+      <c r="B144">
+        <v>20240526</v>
+      </c>
+      <c r="C144" t="s">
+        <v>26</v>
+      </c>
+      <c r="D144">
+        <v>13</v>
+      </c>
+      <c r="E144" t="s">
+        <v>39</v>
+      </c>
+      <c r="F144" t="str">
+        <f t="shared" si="22"/>
+        <v>20/05/2024</v>
+      </c>
+      <c r="G144" t="str">
+        <f t="shared" si="23"/>
+        <v>26/05/2024</v>
+      </c>
+      <c r="H144">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>20240520</v>
+      </c>
+      <c r="B145">
+        <v>20240526</v>
+      </c>
+      <c r="C145" t="s">
+        <v>32</v>
+      </c>
+      <c r="D145">
+        <v>7</v>
+      </c>
+      <c r="E145" t="s">
+        <v>39</v>
+      </c>
+      <c r="F145" t="str">
+        <f t="shared" si="22"/>
+        <v>20/05/2024</v>
+      </c>
+      <c r="G145" t="str">
+        <f t="shared" si="23"/>
+        <v>26/05/2024</v>
+      </c>
+      <c r="H145">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>20240520</v>
+      </c>
+      <c r="B146">
+        <v>20240526</v>
+      </c>
+      <c r="C146" t="s">
+        <v>53</v>
+      </c>
+      <c r="D146">
+        <v>5</v>
+      </c>
+      <c r="E146" t="s">
+        <v>35</v>
+      </c>
+      <c r="F146" t="str">
+        <f t="shared" si="22"/>
+        <v>20/05/2024</v>
+      </c>
+      <c r="G146" t="str">
+        <f t="shared" si="23"/>
+        <v>26/05/2024</v>
+      </c>
+      <c r="H146">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>20240520</v>
+      </c>
+      <c r="B147">
+        <v>20240526</v>
+      </c>
+      <c r="C147" t="s">
+        <v>54</v>
+      </c>
+      <c r="D147">
+        <v>4</v>
+      </c>
+      <c r="E147" t="s">
+        <v>39</v>
+      </c>
+      <c r="F147" t="str">
+        <f t="shared" si="22"/>
+        <v>20/05/2024</v>
+      </c>
+      <c r="G147" t="str">
+        <f t="shared" si="23"/>
+        <v>26/05/2024</v>
+      </c>
+      <c r="H147">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>20240520</v>
+      </c>
+      <c r="B148">
+        <v>20240526</v>
+      </c>
+      <c r="C148" t="s">
+        <v>84</v>
+      </c>
+      <c r="D148">
+        <v>3</v>
+      </c>
+      <c r="E148" t="s">
+        <v>72</v>
+      </c>
+      <c r="F148" t="str">
+        <f t="shared" si="22"/>
+        <v>20/05/2024</v>
+      </c>
+      <c r="G148" t="str">
+        <f t="shared" si="23"/>
+        <v>26/05/2024</v>
+      </c>
+      <c r="H148">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>20240520</v>
+      </c>
+      <c r="B149">
+        <v>20240526</v>
+      </c>
+      <c r="C149" t="s">
+        <v>57</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149" t="s">
+        <v>39</v>
+      </c>
+      <c r="F149" t="str">
+        <f t="shared" si="22"/>
+        <v>20/05/2024</v>
+      </c>
+      <c r="G149" t="str">
+        <f t="shared" si="23"/>
+        <v>26/05/2024</v>
+      </c>
+      <c r="H149">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>20240527</v>
+      </c>
+      <c r="B150">
+        <v>20240602</v>
+      </c>
+      <c r="C150" t="s">
+        <v>28</v>
+      </c>
+      <c r="D150">
+        <v>36</v>
+      </c>
+      <c r="E150" t="s">
+        <v>39</v>
+      </c>
+      <c r="F150" t="str">
+        <f t="shared" si="22"/>
+        <v>27/05/2024</v>
+      </c>
+      <c r="G150" t="str">
+        <f t="shared" si="23"/>
+        <v>02/06/2024</v>
+      </c>
+      <c r="H150">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>20240527</v>
+      </c>
+      <c r="B151">
+        <v>20240602</v>
+      </c>
+      <c r="C151" t="s">
+        <v>53</v>
+      </c>
+      <c r="D151">
+        <v>18</v>
+      </c>
+      <c r="E151" t="s">
+        <v>35</v>
+      </c>
+      <c r="F151" t="str">
+        <f t="shared" si="22"/>
+        <v>27/05/2024</v>
+      </c>
+      <c r="G151" t="str">
+        <f t="shared" si="23"/>
+        <v>02/06/2024</v>
+      </c>
+      <c r="H151">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>20240527</v>
+      </c>
+      <c r="B152">
+        <v>20240602</v>
+      </c>
+      <c r="C152" t="s">
+        <v>86</v>
+      </c>
+      <c r="D152">
+        <v>18</v>
+      </c>
+      <c r="E152" t="s">
+        <v>35</v>
+      </c>
+      <c r="F152" t="str">
+        <f t="shared" ref="F152" si="24">_xlfn.CONCAT(RIGHT(A152,2),"/",MID(A152,5,2),"/",LEFT(A152,4))</f>
+        <v>27/05/2024</v>
+      </c>
+      <c r="G152" t="str">
+        <f t="shared" ref="G152" si="25">_xlfn.CONCAT(RIGHT(B152,2),"/",MID(B152,5,2),"/",LEFT(B152,4))</f>
+        <v>02/06/2024</v>
+      </c>
+      <c r="H152">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>20240527</v>
+      </c>
+      <c r="B153">
+        <v>20240602</v>
+      </c>
+      <c r="C153" t="s">
+        <v>54</v>
+      </c>
+      <c r="D153">
+        <v>12</v>
+      </c>
+      <c r="E153" t="s">
+        <v>39</v>
+      </c>
+      <c r="F153" t="str">
+        <f t="shared" ref="F153" si="26">_xlfn.CONCAT(RIGHT(A153,2),"/",MID(A153,5,2),"/",LEFT(A153,4))</f>
+        <v>27/05/2024</v>
+      </c>
+      <c r="G153" t="str">
+        <f t="shared" ref="G153" si="27">_xlfn.CONCAT(RIGHT(B153,2),"/",MID(B153,5,2),"/",LEFT(B153,4))</f>
+        <v>02/06/2024</v>
+      </c>
+      <c r="H153">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>20240527</v>
+      </c>
+      <c r="B154">
+        <v>20240602</v>
+      </c>
+      <c r="C154" t="s">
+        <v>31</v>
+      </c>
+      <c r="D154">
+        <v>8</v>
+      </c>
+      <c r="E154" t="s">
+        <v>39</v>
+      </c>
+      <c r="F154" t="str">
+        <f t="shared" ref="F154:F159" si="28">_xlfn.CONCAT(RIGHT(A154,2),"/",MID(A154,5,2),"/",LEFT(A154,4))</f>
+        <v>27/05/2024</v>
+      </c>
+      <c r="G154" t="str">
+        <f t="shared" ref="G154:G159" si="29">_xlfn.CONCAT(RIGHT(B154,2),"/",MID(B154,5,2),"/",LEFT(B154,4))</f>
+        <v>02/06/2024</v>
+      </c>
+      <c r="H154">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>20240527</v>
+      </c>
+      <c r="B155">
+        <v>20240602</v>
+      </c>
+      <c r="C155" t="s">
+        <v>57</v>
+      </c>
+      <c r="D155">
+        <v>5</v>
+      </c>
+      <c r="E155" t="s">
+        <v>39</v>
+      </c>
+      <c r="F155" t="str">
+        <f t="shared" si="28"/>
+        <v>27/05/2024</v>
+      </c>
+      <c r="G155" t="str">
+        <f t="shared" si="29"/>
+        <v>02/06/2024</v>
+      </c>
+      <c r="H155">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>20240527</v>
+      </c>
+      <c r="B156">
+        <v>20240602</v>
+      </c>
+      <c r="C156" t="s">
+        <v>87</v>
+      </c>
+      <c r="D156">
+        <v>5</v>
+      </c>
+      <c r="E156" t="s">
+        <v>88</v>
+      </c>
+      <c r="F156" t="str">
+        <f t="shared" si="28"/>
+        <v>27/05/2024</v>
+      </c>
+      <c r="G156" t="str">
+        <f t="shared" si="29"/>
+        <v>02/06/2024</v>
+      </c>
+      <c r="H156">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>20240527</v>
+      </c>
+      <c r="B157">
+        <v>20240602</v>
+      </c>
+      <c r="C157" t="s">
+        <v>26</v>
+      </c>
+      <c r="D157">
+        <v>4</v>
+      </c>
+      <c r="E157" t="s">
+        <v>39</v>
+      </c>
+      <c r="F157" t="str">
+        <f t="shared" si="28"/>
+        <v>27/05/2024</v>
+      </c>
+      <c r="G157" t="str">
+        <f t="shared" si="29"/>
+        <v>02/06/2024</v>
+      </c>
+      <c r="H157">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>20240527</v>
+      </c>
+      <c r="B158">
+        <v>20240602</v>
+      </c>
+      <c r="C158" t="s">
+        <v>75</v>
+      </c>
+      <c r="D158">
+        <v>4</v>
+      </c>
+      <c r="E158" t="s">
+        <v>39</v>
+      </c>
+      <c r="F158" t="str">
+        <f t="shared" si="28"/>
+        <v>27/05/2024</v>
+      </c>
+      <c r="G158" t="str">
+        <f t="shared" si="29"/>
+        <v>02/06/2024</v>
+      </c>
+      <c r="H158">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>20240527</v>
+      </c>
+      <c r="B159">
+        <v>20240602</v>
+      </c>
+      <c r="C159" t="s">
+        <v>89</v>
+      </c>
+      <c r="D159">
+        <v>4</v>
+      </c>
+      <c r="E159" t="s">
+        <v>40</v>
+      </c>
+      <c r="F159" t="str">
+        <f t="shared" si="28"/>
+        <v>27/05/2024</v>
+      </c>
+      <c r="G159" t="str">
+        <f t="shared" si="29"/>
+        <v>02/06/2024</v>
+      </c>
+      <c r="H159">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Arquivos/acesso_pagina.xlsx
+++ b/Arquivos/acesso_pagina.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5dde4ea31a779cd/Documentos/Mestrado/Arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="521" documentId="8_{307E4E81-C6CB-4C75-A70B-340C66C21BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6D05102-9749-4AFA-9A49-C3ABAAEEB520}"/>
+  <xr:revisionPtr revIDLastSave="832" documentId="8_{307E4E81-C6CB-4C75-A70B-340C66C21BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B55E29F8-C9B4-44D3-B039-45AA1A793B90}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EDD8297D-2B60-4420-B95B-ABA330B02DB5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="114">
   <si>
     <t>Extenso</t>
   </si>
@@ -306,6 +306,78 @@
   </si>
   <si>
     <t>Nery 1911</t>
+  </si>
+  <si>
+    <t>Fluminense x Botafogo</t>
+  </si>
+  <si>
+    <t>Thiago Silva</t>
+  </si>
+  <si>
+    <t>Andre</t>
+  </si>
+  <si>
+    <t>Machucados</t>
+  </si>
+  <si>
+    <t>Fluminense x Atlético GO</t>
+  </si>
+  <si>
+    <t>Fluminense x Grêmio</t>
+  </si>
+  <si>
+    <t>Andre 2024</t>
+  </si>
+  <si>
+    <t>Especiais Sequencias</t>
+  </si>
+  <si>
+    <t>Fluminense x Cruzeiro</t>
+  </si>
+  <si>
+    <t>Proximos Jogos</t>
+  </si>
+  <si>
+    <t>Jogos</t>
+  </si>
+  <si>
+    <t>Fluminense x Vitória BA</t>
+  </si>
+  <si>
+    <t>Fluminense x Fortaleza</t>
+  </si>
+  <si>
+    <t>Fluminense x Internacional</t>
+  </si>
+  <si>
+    <t>Especiais Tecnicos Adversarios</t>
+  </si>
+  <si>
+    <t>Especiais Tecnico</t>
+  </si>
+  <si>
+    <t>Fluminense x Criciuma</t>
+  </si>
+  <si>
+    <t>Especiais Históricos</t>
+  </si>
+  <si>
+    <t>Fluminense x Cuiaba</t>
+  </si>
+  <si>
+    <t>Próximos Jogos</t>
+  </si>
+  <si>
+    <t>Domnrvsvallen</t>
+  </si>
+  <si>
+    <t>Vitoria nos 2 turnos</t>
+  </si>
+  <si>
+    <t>Fluminense x Palmeiras</t>
+  </si>
+  <si>
+    <t>Especiais Historicos</t>
   </si>
 </sst>
 </file>
@@ -681,11 +753,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D98800B-829A-491C-81A6-D8AEB8CDBB7D}">
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:H239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F153" sqref="F153"/>
+      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C233" sqref="C233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4994,11 +5066,11 @@
         <v>39</v>
       </c>
       <c r="F154" t="str">
-        <f t="shared" ref="F154:F159" si="28">_xlfn.CONCAT(RIGHT(A154,2),"/",MID(A154,5,2),"/",LEFT(A154,4))</f>
+        <f t="shared" ref="F154:F160" si="28">_xlfn.CONCAT(RIGHT(A154,2),"/",MID(A154,5,2),"/",LEFT(A154,4))</f>
         <v>27/05/2024</v>
       </c>
       <c r="G154" t="str">
-        <f t="shared" ref="G154:G159" si="29">_xlfn.CONCAT(RIGHT(B154,2),"/",MID(B154,5,2),"/",LEFT(B154,4))</f>
+        <f t="shared" ref="G154:G160" si="29">_xlfn.CONCAT(RIGHT(B154,2),"/",MID(B154,5,2),"/",LEFT(B154,4))</f>
         <v>02/06/2024</v>
       </c>
       <c r="H154">
@@ -5143,6 +5215,2246 @@
       </c>
       <c r="H159">
         <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>20240603</v>
+      </c>
+      <c r="B160">
+        <v>20240609</v>
+      </c>
+      <c r="C160" t="s">
+        <v>28</v>
+      </c>
+      <c r="D160">
+        <v>11</v>
+      </c>
+      <c r="E160" t="s">
+        <v>39</v>
+      </c>
+      <c r="F160" t="str">
+        <f t="shared" si="28"/>
+        <v>03/06/2024</v>
+      </c>
+      <c r="G160" t="str">
+        <f t="shared" si="29"/>
+        <v>09/06/2024</v>
+      </c>
+      <c r="H160">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>20240603</v>
+      </c>
+      <c r="B161">
+        <v>20240609</v>
+      </c>
+      <c r="C161" t="s">
+        <v>26</v>
+      </c>
+      <c r="D161">
+        <v>10</v>
+      </c>
+      <c r="E161" t="s">
+        <v>39</v>
+      </c>
+      <c r="F161" t="str">
+        <f t="shared" ref="F161:F171" si="30">_xlfn.CONCAT(RIGHT(A161,2),"/",MID(A161,5,2),"/",LEFT(A161,4))</f>
+        <v>03/06/2024</v>
+      </c>
+      <c r="G161" t="str">
+        <f t="shared" ref="G161:G171" si="31">_xlfn.CONCAT(RIGHT(B161,2),"/",MID(B161,5,2),"/",LEFT(B161,4))</f>
+        <v>09/06/2024</v>
+      </c>
+      <c r="H161">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>20240603</v>
+      </c>
+      <c r="B162">
+        <v>20240609</v>
+      </c>
+      <c r="C162" t="s">
+        <v>90</v>
+      </c>
+      <c r="D162">
+        <v>8</v>
+      </c>
+      <c r="E162" t="s">
+        <v>35</v>
+      </c>
+      <c r="F162" t="str">
+        <f t="shared" si="30"/>
+        <v>03/06/2024</v>
+      </c>
+      <c r="G162" t="str">
+        <f t="shared" si="31"/>
+        <v>09/06/2024</v>
+      </c>
+      <c r="H162">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>20240603</v>
+      </c>
+      <c r="B163">
+        <v>20240609</v>
+      </c>
+      <c r="C163" t="s">
+        <v>91</v>
+      </c>
+      <c r="D163">
+        <v>6</v>
+      </c>
+      <c r="E163" t="s">
+        <v>40</v>
+      </c>
+      <c r="F163" t="str">
+        <f t="shared" si="30"/>
+        <v>03/06/2024</v>
+      </c>
+      <c r="G163" t="str">
+        <f t="shared" si="31"/>
+        <v>09/06/2024</v>
+      </c>
+      <c r="H163">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>20240603</v>
+      </c>
+      <c r="B164">
+        <v>20240609</v>
+      </c>
+      <c r="C164" t="s">
+        <v>54</v>
+      </c>
+      <c r="D164">
+        <v>5</v>
+      </c>
+      <c r="E164" t="s">
+        <v>39</v>
+      </c>
+      <c r="F164" t="str">
+        <f t="shared" si="30"/>
+        <v>03/06/2024</v>
+      </c>
+      <c r="G164" t="str">
+        <f t="shared" si="31"/>
+        <v>09/06/2024</v>
+      </c>
+      <c r="H164">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>20240603</v>
+      </c>
+      <c r="B165">
+        <v>20240609</v>
+      </c>
+      <c r="C165" t="s">
+        <v>31</v>
+      </c>
+      <c r="D165">
+        <v>4</v>
+      </c>
+      <c r="E165" t="s">
+        <v>39</v>
+      </c>
+      <c r="F165" t="str">
+        <f t="shared" si="30"/>
+        <v>03/06/2024</v>
+      </c>
+      <c r="G165" t="str">
+        <f t="shared" si="31"/>
+        <v>09/06/2024</v>
+      </c>
+      <c r="H165">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>20240603</v>
+      </c>
+      <c r="B166">
+        <v>20240609</v>
+      </c>
+      <c r="C166" t="s">
+        <v>92</v>
+      </c>
+      <c r="D166">
+        <v>3</v>
+      </c>
+      <c r="E166" t="s">
+        <v>93</v>
+      </c>
+      <c r="F166" t="str">
+        <f t="shared" si="30"/>
+        <v>03/06/2024</v>
+      </c>
+      <c r="G166" t="str">
+        <f t="shared" si="31"/>
+        <v>09/06/2024</v>
+      </c>
+      <c r="H166">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>20240603</v>
+      </c>
+      <c r="B167">
+        <v>20240609</v>
+      </c>
+      <c r="C167" t="s">
+        <v>57</v>
+      </c>
+      <c r="D167">
+        <v>2</v>
+      </c>
+      <c r="E167" t="s">
+        <v>39</v>
+      </c>
+      <c r="F167" t="str">
+        <f t="shared" si="30"/>
+        <v>03/06/2024</v>
+      </c>
+      <c r="G167" t="str">
+        <f t="shared" si="31"/>
+        <v>09/06/2024</v>
+      </c>
+      <c r="H167">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>20240603</v>
+      </c>
+      <c r="B168">
+        <v>20240609</v>
+      </c>
+      <c r="C168" t="s">
+        <v>75</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168" t="s">
+        <v>39</v>
+      </c>
+      <c r="F168" t="str">
+        <f t="shared" si="30"/>
+        <v>03/06/2024</v>
+      </c>
+      <c r="G168" t="str">
+        <f t="shared" si="31"/>
+        <v>09/06/2024</v>
+      </c>
+      <c r="H168">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>20240610</v>
+      </c>
+      <c r="B169">
+        <v>20240616</v>
+      </c>
+      <c r="C169" t="s">
+        <v>94</v>
+      </c>
+      <c r="D169">
+        <v>32</v>
+      </c>
+      <c r="E169" t="s">
+        <v>35</v>
+      </c>
+      <c r="F169" t="str">
+        <f t="shared" ref="F169" si="32">_xlfn.CONCAT(RIGHT(A169,2),"/",MID(A169,5,2),"/",LEFT(A169,4))</f>
+        <v>10/06/2024</v>
+      </c>
+      <c r="G169" t="str">
+        <f t="shared" ref="G169" si="33">_xlfn.CONCAT(RIGHT(B169,2),"/",MID(B169,5,2),"/",LEFT(B169,4))</f>
+        <v>16/06/2024</v>
+      </c>
+      <c r="H169">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>20240610</v>
+      </c>
+      <c r="B170">
+        <v>20240616</v>
+      </c>
+      <c r="C170" t="s">
+        <v>28</v>
+      </c>
+      <c r="D170">
+        <v>16</v>
+      </c>
+      <c r="E170" t="s">
+        <v>39</v>
+      </c>
+      <c r="F170" t="str">
+        <f t="shared" si="30"/>
+        <v>10/06/2024</v>
+      </c>
+      <c r="G170" t="str">
+        <f t="shared" si="31"/>
+        <v>16/06/2024</v>
+      </c>
+      <c r="H170">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>20240610</v>
+      </c>
+      <c r="B171">
+        <v>20240616</v>
+      </c>
+      <c r="C171" t="s">
+        <v>90</v>
+      </c>
+      <c r="D171">
+        <v>13</v>
+      </c>
+      <c r="E171" t="s">
+        <v>35</v>
+      </c>
+      <c r="F171" t="str">
+        <f t="shared" si="30"/>
+        <v>10/06/2024</v>
+      </c>
+      <c r="G171" t="str">
+        <f t="shared" si="31"/>
+        <v>16/06/2024</v>
+      </c>
+      <c r="H171">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>20240610</v>
+      </c>
+      <c r="B172">
+        <v>20240616</v>
+      </c>
+      <c r="C172" t="s">
+        <v>95</v>
+      </c>
+      <c r="D172">
+        <v>6</v>
+      </c>
+      <c r="E172" t="s">
+        <v>35</v>
+      </c>
+      <c r="F172" t="str">
+        <f t="shared" ref="F172" si="34">_xlfn.CONCAT(RIGHT(A172,2),"/",MID(A172,5,2),"/",LEFT(A172,4))</f>
+        <v>10/06/2024</v>
+      </c>
+      <c r="G172" t="str">
+        <f t="shared" ref="G172" si="35">_xlfn.CONCAT(RIGHT(B172,2),"/",MID(B172,5,2),"/",LEFT(B172,4))</f>
+        <v>16/06/2024</v>
+      </c>
+      <c r="H172">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>20240610</v>
+      </c>
+      <c r="B173">
+        <v>20240616</v>
+      </c>
+      <c r="C173" t="s">
+        <v>57</v>
+      </c>
+      <c r="D173">
+        <v>4</v>
+      </c>
+      <c r="E173" t="s">
+        <v>39</v>
+      </c>
+      <c r="F173" t="str">
+        <f t="shared" ref="F173:F180" si="36">_xlfn.CONCAT(RIGHT(A173,2),"/",MID(A173,5,2),"/",LEFT(A173,4))</f>
+        <v>10/06/2024</v>
+      </c>
+      <c r="G173" t="str">
+        <f t="shared" ref="G173:G180" si="37">_xlfn.CONCAT(RIGHT(B173,2),"/",MID(B173,5,2),"/",LEFT(B173,4))</f>
+        <v>16/06/2024</v>
+      </c>
+      <c r="H173">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>20240610</v>
+      </c>
+      <c r="B174">
+        <v>20240616</v>
+      </c>
+      <c r="C174" t="s">
+        <v>31</v>
+      </c>
+      <c r="D174">
+        <v>4</v>
+      </c>
+      <c r="E174" t="s">
+        <v>39</v>
+      </c>
+      <c r="F174" t="str">
+        <f t="shared" si="36"/>
+        <v>10/06/2024</v>
+      </c>
+      <c r="G174" t="str">
+        <f t="shared" si="37"/>
+        <v>16/06/2024</v>
+      </c>
+      <c r="H174">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>20240610</v>
+      </c>
+      <c r="B175">
+        <v>20240616</v>
+      </c>
+      <c r="C175" t="s">
+        <v>97</v>
+      </c>
+      <c r="D175">
+        <v>3</v>
+      </c>
+      <c r="E175" t="s">
+        <v>39</v>
+      </c>
+      <c r="F175" t="str">
+        <f t="shared" si="36"/>
+        <v>10/06/2024</v>
+      </c>
+      <c r="G175" t="str">
+        <f t="shared" si="37"/>
+        <v>16/06/2024</v>
+      </c>
+      <c r="H175">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>20240610</v>
+      </c>
+      <c r="B176">
+        <v>20240616</v>
+      </c>
+      <c r="C176" t="s">
+        <v>96</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176" t="s">
+        <v>40</v>
+      </c>
+      <c r="F176" t="str">
+        <f t="shared" si="36"/>
+        <v>10/06/2024</v>
+      </c>
+      <c r="G176" t="str">
+        <f t="shared" si="37"/>
+        <v>16/06/2024</v>
+      </c>
+      <c r="H176">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>20240610</v>
+      </c>
+      <c r="B177">
+        <v>20240616</v>
+      </c>
+      <c r="C177" t="s">
+        <v>75</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177" t="s">
+        <v>39</v>
+      </c>
+      <c r="F177" t="str">
+        <f t="shared" si="36"/>
+        <v>10/06/2024</v>
+      </c>
+      <c r="G177" t="str">
+        <f t="shared" si="37"/>
+        <v>16/06/2024</v>
+      </c>
+      <c r="H177">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>20240617</v>
+      </c>
+      <c r="B178">
+        <v>20240623</v>
+      </c>
+      <c r="C178" t="s">
+        <v>98</v>
+      </c>
+      <c r="D178">
+        <v>22</v>
+      </c>
+      <c r="E178" t="s">
+        <v>35</v>
+      </c>
+      <c r="F178" t="str">
+        <f t="shared" si="36"/>
+        <v>17/06/2024</v>
+      </c>
+      <c r="G178" t="str">
+        <f t="shared" si="37"/>
+        <v>23/06/2024</v>
+      </c>
+      <c r="H178">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>20240617</v>
+      </c>
+      <c r="B179">
+        <v>20240623</v>
+      </c>
+      <c r="C179" t="s">
+        <v>28</v>
+      </c>
+      <c r="D179">
+        <v>15</v>
+      </c>
+      <c r="E179" t="s">
+        <v>39</v>
+      </c>
+      <c r="F179" t="str">
+        <f t="shared" si="36"/>
+        <v>17/06/2024</v>
+      </c>
+      <c r="G179" t="str">
+        <f t="shared" si="37"/>
+        <v>23/06/2024</v>
+      </c>
+      <c r="H179">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>20240617</v>
+      </c>
+      <c r="B180">
+        <v>20240623</v>
+      </c>
+      <c r="C180" t="s">
+        <v>26</v>
+      </c>
+      <c r="D180">
+        <v>7</v>
+      </c>
+      <c r="E180" t="s">
+        <v>39</v>
+      </c>
+      <c r="F180" t="str">
+        <f t="shared" si="36"/>
+        <v>17/06/2024</v>
+      </c>
+      <c r="G180" t="str">
+        <f t="shared" si="37"/>
+        <v>23/06/2024</v>
+      </c>
+      <c r="H180">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>20240617</v>
+      </c>
+      <c r="B181">
+        <v>20240623</v>
+      </c>
+      <c r="C181" t="s">
+        <v>57</v>
+      </c>
+      <c r="D181">
+        <v>7</v>
+      </c>
+      <c r="E181" t="s">
+        <v>39</v>
+      </c>
+      <c r="F181" t="str">
+        <f t="shared" ref="F181:F185" si="38">_xlfn.CONCAT(RIGHT(A181,2),"/",MID(A181,5,2),"/",LEFT(A181,4))</f>
+        <v>17/06/2024</v>
+      </c>
+      <c r="G181" t="str">
+        <f t="shared" ref="G181:G185" si="39">_xlfn.CONCAT(RIGHT(B181,2),"/",MID(B181,5,2),"/",LEFT(B181,4))</f>
+        <v>23/06/2024</v>
+      </c>
+      <c r="H181">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>20240617</v>
+      </c>
+      <c r="B182">
+        <v>20240623</v>
+      </c>
+      <c r="C182" t="s">
+        <v>54</v>
+      </c>
+      <c r="D182">
+        <v>5</v>
+      </c>
+      <c r="E182" t="s">
+        <v>39</v>
+      </c>
+      <c r="F182" t="str">
+        <f t="shared" si="38"/>
+        <v>17/06/2024</v>
+      </c>
+      <c r="G182" t="str">
+        <f t="shared" si="39"/>
+        <v>23/06/2024</v>
+      </c>
+      <c r="H182">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>20240617</v>
+      </c>
+      <c r="B183">
+        <v>20240623</v>
+      </c>
+      <c r="C183" t="s">
+        <v>31</v>
+      </c>
+      <c r="D183">
+        <v>5</v>
+      </c>
+      <c r="E183" t="s">
+        <v>39</v>
+      </c>
+      <c r="F183" t="str">
+        <f t="shared" si="38"/>
+        <v>17/06/2024</v>
+      </c>
+      <c r="G183" t="str">
+        <f t="shared" si="39"/>
+        <v>23/06/2024</v>
+      </c>
+      <c r="H183">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>20240617</v>
+      </c>
+      <c r="B184">
+        <v>20240623</v>
+      </c>
+      <c r="C184" t="s">
+        <v>99</v>
+      </c>
+      <c r="D184">
+        <v>4</v>
+      </c>
+      <c r="E184" t="s">
+        <v>100</v>
+      </c>
+      <c r="F184" t="str">
+        <f t="shared" si="38"/>
+        <v>17/06/2024</v>
+      </c>
+      <c r="G184" t="str">
+        <f t="shared" si="39"/>
+        <v>23/06/2024</v>
+      </c>
+      <c r="H184">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>20240624</v>
+      </c>
+      <c r="B185">
+        <v>20240630</v>
+      </c>
+      <c r="C185" t="s">
+        <v>101</v>
+      </c>
+      <c r="D185">
+        <v>21</v>
+      </c>
+      <c r="E185" t="s">
+        <v>35</v>
+      </c>
+      <c r="F185" t="str">
+        <f t="shared" si="38"/>
+        <v>24/06/2024</v>
+      </c>
+      <c r="G185" t="str">
+        <f t="shared" si="39"/>
+        <v>30/06/2024</v>
+      </c>
+      <c r="H185">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>20240624</v>
+      </c>
+      <c r="B186">
+        <v>20240630</v>
+      </c>
+      <c r="C186" t="s">
+        <v>95</v>
+      </c>
+      <c r="D186">
+        <v>18</v>
+      </c>
+      <c r="E186" t="s">
+        <v>35</v>
+      </c>
+      <c r="F186" t="str">
+        <f t="shared" ref="F186:F194" si="40">_xlfn.CONCAT(RIGHT(A186,2),"/",MID(A186,5,2),"/",LEFT(A186,4))</f>
+        <v>24/06/2024</v>
+      </c>
+      <c r="G186" t="str">
+        <f t="shared" ref="G186:G194" si="41">_xlfn.CONCAT(RIGHT(B186,2),"/",MID(B186,5,2),"/",LEFT(B186,4))</f>
+        <v>30/06/2024</v>
+      </c>
+      <c r="H186">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>20240624</v>
+      </c>
+      <c r="B187">
+        <v>20240630</v>
+      </c>
+      <c r="C187" t="s">
+        <v>28</v>
+      </c>
+      <c r="D187">
+        <v>8</v>
+      </c>
+      <c r="E187" t="s">
+        <v>39</v>
+      </c>
+      <c r="F187" t="str">
+        <f t="shared" si="40"/>
+        <v>24/06/2024</v>
+      </c>
+      <c r="G187" t="str">
+        <f t="shared" si="41"/>
+        <v>30/06/2024</v>
+      </c>
+      <c r="H187">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>20240624</v>
+      </c>
+      <c r="B188">
+        <v>20240630</v>
+      </c>
+      <c r="C188" t="s">
+        <v>31</v>
+      </c>
+      <c r="D188">
+        <v>8</v>
+      </c>
+      <c r="E188" t="s">
+        <v>39</v>
+      </c>
+      <c r="F188" t="str">
+        <f t="shared" si="40"/>
+        <v>24/06/2024</v>
+      </c>
+      <c r="G188" t="str">
+        <f t="shared" si="41"/>
+        <v>30/06/2024</v>
+      </c>
+      <c r="H188">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>20240624</v>
+      </c>
+      <c r="B189">
+        <v>20240630</v>
+      </c>
+      <c r="C189" t="s">
+        <v>99</v>
+      </c>
+      <c r="D189">
+        <v>7</v>
+      </c>
+      <c r="E189" t="s">
+        <v>100</v>
+      </c>
+      <c r="F189" t="str">
+        <f t="shared" si="40"/>
+        <v>24/06/2024</v>
+      </c>
+      <c r="G189" t="str">
+        <f t="shared" si="41"/>
+        <v>30/06/2024</v>
+      </c>
+      <c r="H189">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>20240624</v>
+      </c>
+      <c r="B190">
+        <v>20240630</v>
+      </c>
+      <c r="C190" t="s">
+        <v>26</v>
+      </c>
+      <c r="D190">
+        <v>5</v>
+      </c>
+      <c r="E190" t="s">
+        <v>39</v>
+      </c>
+      <c r="F190" t="str">
+        <f t="shared" si="40"/>
+        <v>24/06/2024</v>
+      </c>
+      <c r="G190" t="str">
+        <f t="shared" si="41"/>
+        <v>30/06/2024</v>
+      </c>
+      <c r="H190">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>20240624</v>
+      </c>
+      <c r="B191">
+        <v>20240630</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191">
+        <v>5</v>
+      </c>
+      <c r="E191" t="s">
+        <v>39</v>
+      </c>
+      <c r="F191" t="str">
+        <f t="shared" si="40"/>
+        <v>24/06/2024</v>
+      </c>
+      <c r="G191" t="str">
+        <f t="shared" si="41"/>
+        <v>30/06/2024</v>
+      </c>
+      <c r="H191">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>20240624</v>
+      </c>
+      <c r="B192">
+        <v>20240630</v>
+      </c>
+      <c r="C192" t="s">
+        <v>57</v>
+      </c>
+      <c r="D192">
+        <v>3</v>
+      </c>
+      <c r="E192" t="s">
+        <v>39</v>
+      </c>
+      <c r="F192" t="str">
+        <f t="shared" si="40"/>
+        <v>24/06/2024</v>
+      </c>
+      <c r="G192" t="str">
+        <f t="shared" si="41"/>
+        <v>30/06/2024</v>
+      </c>
+      <c r="H192">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>20240624</v>
+      </c>
+      <c r="B193">
+        <v>20240630</v>
+      </c>
+      <c r="C193" t="s">
+        <v>54</v>
+      </c>
+      <c r="D193">
+        <v>3</v>
+      </c>
+      <c r="E193" t="s">
+        <v>39</v>
+      </c>
+      <c r="F193" t="str">
+        <f t="shared" si="40"/>
+        <v>24/06/2024</v>
+      </c>
+      <c r="G193" t="str">
+        <f t="shared" si="41"/>
+        <v>30/06/2024</v>
+      </c>
+      <c r="H193">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>20240701</v>
+      </c>
+      <c r="B194">
+        <v>20240707</v>
+      </c>
+      <c r="C194" t="s">
+        <v>102</v>
+      </c>
+      <c r="D194">
+        <v>26</v>
+      </c>
+      <c r="E194" t="s">
+        <v>35</v>
+      </c>
+      <c r="F194" t="str">
+        <f t="shared" si="40"/>
+        <v>01/07/2024</v>
+      </c>
+      <c r="G194" t="str">
+        <f t="shared" si="41"/>
+        <v>07/07/2024</v>
+      </c>
+      <c r="H194">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>20240701</v>
+      </c>
+      <c r="B195">
+        <v>20240707</v>
+      </c>
+      <c r="C195" t="s">
+        <v>103</v>
+      </c>
+      <c r="D195">
+        <v>21</v>
+      </c>
+      <c r="E195" t="s">
+        <v>35</v>
+      </c>
+      <c r="F195" t="str">
+        <f t="shared" ref="F195:F204" si="42">_xlfn.CONCAT(RIGHT(A195,2),"/",MID(A195,5,2),"/",LEFT(A195,4))</f>
+        <v>01/07/2024</v>
+      </c>
+      <c r="G195" t="str">
+        <f t="shared" ref="G195:G204" si="43">_xlfn.CONCAT(RIGHT(B195,2),"/",MID(B195,5,2),"/",LEFT(B195,4))</f>
+        <v>07/07/2024</v>
+      </c>
+      <c r="H195">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>20240701</v>
+      </c>
+      <c r="B196">
+        <v>20240707</v>
+      </c>
+      <c r="C196" t="s">
+        <v>28</v>
+      </c>
+      <c r="D196">
+        <v>13</v>
+      </c>
+      <c r="E196" t="s">
+        <v>39</v>
+      </c>
+      <c r="F196" t="str">
+        <f t="shared" si="42"/>
+        <v>01/07/2024</v>
+      </c>
+      <c r="G196" t="str">
+        <f t="shared" si="43"/>
+        <v>07/07/2024</v>
+      </c>
+      <c r="H196">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>20240701</v>
+      </c>
+      <c r="B197">
+        <v>20240707</v>
+      </c>
+      <c r="C197" t="s">
+        <v>99</v>
+      </c>
+      <c r="D197">
+        <v>8</v>
+      </c>
+      <c r="E197" t="s">
+        <v>100</v>
+      </c>
+      <c r="F197" t="str">
+        <f t="shared" si="42"/>
+        <v>01/07/2024</v>
+      </c>
+      <c r="G197" t="str">
+        <f t="shared" si="43"/>
+        <v>07/07/2024</v>
+      </c>
+      <c r="H197">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>20240701</v>
+      </c>
+      <c r="B198">
+        <v>20240707</v>
+      </c>
+      <c r="C198" t="s">
+        <v>26</v>
+      </c>
+      <c r="D198">
+        <v>4</v>
+      </c>
+      <c r="E198" t="s">
+        <v>39</v>
+      </c>
+      <c r="F198" t="str">
+        <f t="shared" si="42"/>
+        <v>01/07/2024</v>
+      </c>
+      <c r="G198" t="str">
+        <f t="shared" si="43"/>
+        <v>07/07/2024</v>
+      </c>
+      <c r="H198">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>20240701</v>
+      </c>
+      <c r="B199">
+        <v>20240707</v>
+      </c>
+      <c r="C199" t="s">
+        <v>97</v>
+      </c>
+      <c r="D199">
+        <v>4</v>
+      </c>
+      <c r="E199" t="s">
+        <v>39</v>
+      </c>
+      <c r="F199" t="str">
+        <f t="shared" si="42"/>
+        <v>01/07/2024</v>
+      </c>
+      <c r="G199" t="str">
+        <f t="shared" si="43"/>
+        <v>07/07/2024</v>
+      </c>
+      <c r="H199">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>20240701</v>
+      </c>
+      <c r="B200">
+        <v>20240707</v>
+      </c>
+      <c r="C200" t="s">
+        <v>104</v>
+      </c>
+      <c r="D200">
+        <v>4</v>
+      </c>
+      <c r="E200" t="s">
+        <v>39</v>
+      </c>
+      <c r="F200" t="str">
+        <f t="shared" si="42"/>
+        <v>01/07/2024</v>
+      </c>
+      <c r="G200" t="str">
+        <f t="shared" si="43"/>
+        <v>07/07/2024</v>
+      </c>
+      <c r="H200">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>20240701</v>
+      </c>
+      <c r="B201">
+        <v>20240707</v>
+      </c>
+      <c r="C201" t="s">
+        <v>30</v>
+      </c>
+      <c r="D201">
+        <v>3</v>
+      </c>
+      <c r="E201" t="s">
+        <v>39</v>
+      </c>
+      <c r="F201" t="str">
+        <f t="shared" si="42"/>
+        <v>01/07/2024</v>
+      </c>
+      <c r="G201" t="str">
+        <f t="shared" si="43"/>
+        <v>07/07/2024</v>
+      </c>
+      <c r="H201">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>20240701</v>
+      </c>
+      <c r="B202">
+        <v>20240707</v>
+      </c>
+      <c r="C202" t="s">
+        <v>54</v>
+      </c>
+      <c r="D202">
+        <v>3</v>
+      </c>
+      <c r="E202" t="s">
+        <v>39</v>
+      </c>
+      <c r="F202" t="str">
+        <f t="shared" si="42"/>
+        <v>01/07/2024</v>
+      </c>
+      <c r="G202" t="str">
+        <f t="shared" si="43"/>
+        <v>07/07/2024</v>
+      </c>
+      <c r="H202">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>20240701</v>
+      </c>
+      <c r="B203">
+        <v>20240707</v>
+      </c>
+      <c r="C203" t="s">
+        <v>105</v>
+      </c>
+      <c r="D203">
+        <v>2</v>
+      </c>
+      <c r="E203" t="s">
+        <v>39</v>
+      </c>
+      <c r="F203" t="str">
+        <f t="shared" si="42"/>
+        <v>01/07/2024</v>
+      </c>
+      <c r="G203" t="str">
+        <f t="shared" si="43"/>
+        <v>07/07/2024</v>
+      </c>
+      <c r="H203">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>20240708</v>
+      </c>
+      <c r="B204">
+        <v>20240714</v>
+      </c>
+      <c r="C204" t="s">
+        <v>106</v>
+      </c>
+      <c r="D204">
+        <v>17</v>
+      </c>
+      <c r="E204" t="s">
+        <v>35</v>
+      </c>
+      <c r="F204" t="str">
+        <f t="shared" si="42"/>
+        <v>08/07/2024</v>
+      </c>
+      <c r="G204" t="str">
+        <f t="shared" si="43"/>
+        <v>14/07/2024</v>
+      </c>
+      <c r="H204">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>20240708</v>
+      </c>
+      <c r="B205">
+        <v>20240714</v>
+      </c>
+      <c r="C205" t="s">
+        <v>97</v>
+      </c>
+      <c r="D205">
+        <v>8</v>
+      </c>
+      <c r="E205" t="s">
+        <v>39</v>
+      </c>
+      <c r="F205" t="str">
+        <f t="shared" ref="F205:F214" si="44">_xlfn.CONCAT(RIGHT(A205,2),"/",MID(A205,5,2),"/",LEFT(A205,4))</f>
+        <v>08/07/2024</v>
+      </c>
+      <c r="G205" t="str">
+        <f t="shared" ref="G205:G214" si="45">_xlfn.CONCAT(RIGHT(B205,2),"/",MID(B205,5,2),"/",LEFT(B205,4))</f>
+        <v>14/07/2024</v>
+      </c>
+      <c r="H205">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>20240708</v>
+      </c>
+      <c r="B206">
+        <v>20240714</v>
+      </c>
+      <c r="C206" t="s">
+        <v>26</v>
+      </c>
+      <c r="D206">
+        <v>7</v>
+      </c>
+      <c r="E206" t="s">
+        <v>39</v>
+      </c>
+      <c r="F206" t="str">
+        <f t="shared" si="44"/>
+        <v>08/07/2024</v>
+      </c>
+      <c r="G206" t="str">
+        <f t="shared" si="45"/>
+        <v>14/07/2024</v>
+      </c>
+      <c r="H206">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>20240708</v>
+      </c>
+      <c r="B207">
+        <v>20240714</v>
+      </c>
+      <c r="C207" t="s">
+        <v>99</v>
+      </c>
+      <c r="D207">
+        <v>6</v>
+      </c>
+      <c r="E207" t="s">
+        <v>100</v>
+      </c>
+      <c r="F207" t="str">
+        <f t="shared" si="44"/>
+        <v>08/07/2024</v>
+      </c>
+      <c r="G207" t="str">
+        <f t="shared" si="45"/>
+        <v>14/07/2024</v>
+      </c>
+      <c r="H207">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>20240708</v>
+      </c>
+      <c r="B208">
+        <v>20240714</v>
+      </c>
+      <c r="C208" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208">
+        <v>5</v>
+      </c>
+      <c r="E208" t="s">
+        <v>39</v>
+      </c>
+      <c r="F208" t="str">
+        <f t="shared" si="44"/>
+        <v>08/07/2024</v>
+      </c>
+      <c r="G208" t="str">
+        <f t="shared" si="45"/>
+        <v>14/07/2024</v>
+      </c>
+      <c r="H208">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>20240708</v>
+      </c>
+      <c r="B209">
+        <v>20240714</v>
+      </c>
+      <c r="C209" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209">
+        <v>3</v>
+      </c>
+      <c r="E209" t="s">
+        <v>39</v>
+      </c>
+      <c r="F209" t="str">
+        <f t="shared" si="44"/>
+        <v>08/07/2024</v>
+      </c>
+      <c r="G209" t="str">
+        <f t="shared" si="45"/>
+        <v>14/07/2024</v>
+      </c>
+      <c r="H209">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>20240708</v>
+      </c>
+      <c r="B210">
+        <v>20240714</v>
+      </c>
+      <c r="C210" t="s">
+        <v>54</v>
+      </c>
+      <c r="D210">
+        <v>2</v>
+      </c>
+      <c r="E210" t="s">
+        <v>39</v>
+      </c>
+      <c r="F210" t="str">
+        <f t="shared" si="44"/>
+        <v>08/07/2024</v>
+      </c>
+      <c r="G210" t="str">
+        <f t="shared" si="45"/>
+        <v>14/07/2024</v>
+      </c>
+      <c r="H210">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>20240708</v>
+      </c>
+      <c r="B211">
+        <v>20240714</v>
+      </c>
+      <c r="C211" t="s">
+        <v>107</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211" t="s">
+        <v>39</v>
+      </c>
+      <c r="F211" t="str">
+        <f t="shared" si="44"/>
+        <v>08/07/2024</v>
+      </c>
+      <c r="G211" t="str">
+        <f t="shared" si="45"/>
+        <v>14/07/2024</v>
+      </c>
+      <c r="H211">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>20240708</v>
+      </c>
+      <c r="B212">
+        <v>20240714</v>
+      </c>
+      <c r="C212" t="s">
+        <v>31</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+      <c r="E212" t="s">
+        <v>39</v>
+      </c>
+      <c r="F212" t="str">
+        <f t="shared" si="44"/>
+        <v>08/07/2024</v>
+      </c>
+      <c r="G212" t="str">
+        <f t="shared" si="45"/>
+        <v>14/07/2024</v>
+      </c>
+      <c r="H212">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>20240708</v>
+      </c>
+      <c r="B213">
+        <v>20240714</v>
+      </c>
+      <c r="C213" t="s">
+        <v>102</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+      <c r="E213" t="s">
+        <v>35</v>
+      </c>
+      <c r="F213" t="str">
+        <f t="shared" si="44"/>
+        <v>08/07/2024</v>
+      </c>
+      <c r="G213" t="str">
+        <f t="shared" si="45"/>
+        <v>14/07/2024</v>
+      </c>
+      <c r="H213">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>20240715</v>
+      </c>
+      <c r="B214">
+        <v>20240721</v>
+      </c>
+      <c r="C214" t="s">
+        <v>108</v>
+      </c>
+      <c r="D214">
+        <v>18</v>
+      </c>
+      <c r="E214" t="s">
+        <v>35</v>
+      </c>
+      <c r="F214" t="str">
+        <f t="shared" si="44"/>
+        <v>15/07/2024</v>
+      </c>
+      <c r="G214" t="str">
+        <f t="shared" si="45"/>
+        <v>21/07/2024</v>
+      </c>
+      <c r="H214">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>20240715</v>
+      </c>
+      <c r="B215">
+        <v>20240721</v>
+      </c>
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215">
+        <v>14</v>
+      </c>
+      <c r="E215" t="s">
+        <v>39</v>
+      </c>
+      <c r="F215" t="str">
+        <f t="shared" ref="F215:F223" si="46">_xlfn.CONCAT(RIGHT(A215,2),"/",MID(A215,5,2),"/",LEFT(A215,4))</f>
+        <v>15/07/2024</v>
+      </c>
+      <c r="G215" t="str">
+        <f t="shared" ref="G215:G223" si="47">_xlfn.CONCAT(RIGHT(B215,2),"/",MID(B215,5,2),"/",LEFT(B215,4))</f>
+        <v>21/07/2024</v>
+      </c>
+      <c r="H215">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>20240715</v>
+      </c>
+      <c r="B216">
+        <v>20240721</v>
+      </c>
+      <c r="C216" t="s">
+        <v>26</v>
+      </c>
+      <c r="D216">
+        <v>9</v>
+      </c>
+      <c r="E216" t="s">
+        <v>39</v>
+      </c>
+      <c r="F216" t="str">
+        <f t="shared" si="46"/>
+        <v>15/07/2024</v>
+      </c>
+      <c r="G216" t="str">
+        <f t="shared" si="47"/>
+        <v>21/07/2024</v>
+      </c>
+      <c r="H216">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>20240715</v>
+      </c>
+      <c r="B217">
+        <v>20240721</v>
+      </c>
+      <c r="C217" t="s">
+        <v>109</v>
+      </c>
+      <c r="D217">
+        <v>8</v>
+      </c>
+      <c r="E217" t="s">
+        <v>100</v>
+      </c>
+      <c r="F217" t="str">
+        <f t="shared" si="46"/>
+        <v>15/07/2024</v>
+      </c>
+      <c r="G217" t="str">
+        <f t="shared" si="47"/>
+        <v>21/07/2024</v>
+      </c>
+      <c r="H217">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>20240715</v>
+      </c>
+      <c r="B218">
+        <v>20240721</v>
+      </c>
+      <c r="C218" t="s">
+        <v>57</v>
+      </c>
+      <c r="D218">
+        <v>7</v>
+      </c>
+      <c r="E218" t="s">
+        <v>39</v>
+      </c>
+      <c r="F218" t="str">
+        <f t="shared" si="46"/>
+        <v>15/07/2024</v>
+      </c>
+      <c r="G218" t="str">
+        <f t="shared" si="47"/>
+        <v>21/07/2024</v>
+      </c>
+      <c r="H218">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>20240715</v>
+      </c>
+      <c r="B219">
+        <v>20240721</v>
+      </c>
+      <c r="C219" t="s">
+        <v>54</v>
+      </c>
+      <c r="D219">
+        <v>6</v>
+      </c>
+      <c r="E219" t="s">
+        <v>39</v>
+      </c>
+      <c r="F219" t="str">
+        <f t="shared" si="46"/>
+        <v>15/07/2024</v>
+      </c>
+      <c r="G219" t="str">
+        <f t="shared" si="47"/>
+        <v>21/07/2024</v>
+      </c>
+      <c r="H219">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>20240715</v>
+      </c>
+      <c r="B220">
+        <v>20240721</v>
+      </c>
+      <c r="C220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D220">
+        <v>3</v>
+      </c>
+      <c r="E220" t="s">
+        <v>42</v>
+      </c>
+      <c r="F220" t="str">
+        <f t="shared" si="46"/>
+        <v>15/07/2024</v>
+      </c>
+      <c r="G220" t="str">
+        <f t="shared" si="47"/>
+        <v>21/07/2024</v>
+      </c>
+      <c r="H220">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>20240715</v>
+      </c>
+      <c r="B221">
+        <v>20240721</v>
+      </c>
+      <c r="C221" t="s">
+        <v>111</v>
+      </c>
+      <c r="D221">
+        <v>3</v>
+      </c>
+      <c r="E221" t="s">
+        <v>35</v>
+      </c>
+      <c r="F221" t="str">
+        <f t="shared" si="46"/>
+        <v>15/07/2024</v>
+      </c>
+      <c r="G221" t="str">
+        <f t="shared" si="47"/>
+        <v>21/07/2024</v>
+      </c>
+      <c r="H221">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>20240715</v>
+      </c>
+      <c r="B222">
+        <v>20240721</v>
+      </c>
+      <c r="C222" t="s">
+        <v>30</v>
+      </c>
+      <c r="D222">
+        <v>2</v>
+      </c>
+      <c r="E222" t="s">
+        <v>39</v>
+      </c>
+      <c r="F222" t="str">
+        <f t="shared" si="46"/>
+        <v>15/07/2024</v>
+      </c>
+      <c r="G222" t="str">
+        <f t="shared" si="47"/>
+        <v>21/07/2024</v>
+      </c>
+      <c r="H222">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>20240722</v>
+      </c>
+      <c r="B223">
+        <v>20240728</v>
+      </c>
+      <c r="C223" t="s">
+        <v>28</v>
+      </c>
+      <c r="D223">
+        <v>29</v>
+      </c>
+      <c r="E223" t="s">
+        <v>39</v>
+      </c>
+      <c r="F223" t="str">
+        <f t="shared" si="46"/>
+        <v>22/07/2024</v>
+      </c>
+      <c r="G223" t="str">
+        <f t="shared" si="47"/>
+        <v>28/07/2024</v>
+      </c>
+      <c r="H223">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>20240722</v>
+      </c>
+      <c r="B224">
+        <v>20240728</v>
+      </c>
+      <c r="C224" t="s">
+        <v>112</v>
+      </c>
+      <c r="D224">
+        <v>24</v>
+      </c>
+      <c r="E224" t="s">
+        <v>35</v>
+      </c>
+      <c r="F224" t="str">
+        <f t="shared" ref="F224:F232" si="48">_xlfn.CONCAT(RIGHT(A224,2),"/",MID(A224,5,2),"/",LEFT(A224,4))</f>
+        <v>22/07/2024</v>
+      </c>
+      <c r="G224" t="str">
+        <f t="shared" ref="G224:G232" si="49">_xlfn.CONCAT(RIGHT(B224,2),"/",MID(B224,5,2),"/",LEFT(B224,4))</f>
+        <v>28/07/2024</v>
+      </c>
+      <c r="H224">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>20240722</v>
+      </c>
+      <c r="B225">
+        <v>20240728</v>
+      </c>
+      <c r="C225" t="s">
+        <v>54</v>
+      </c>
+      <c r="D225">
+        <v>21</v>
+      </c>
+      <c r="E225" t="s">
+        <v>39</v>
+      </c>
+      <c r="F225" t="str">
+        <f t="shared" si="48"/>
+        <v>22/07/2024</v>
+      </c>
+      <c r="G225" t="str">
+        <f t="shared" si="49"/>
+        <v>28/07/2024</v>
+      </c>
+      <c r="H225">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>20240722</v>
+      </c>
+      <c r="B226">
+        <v>20240728</v>
+      </c>
+      <c r="C226" t="s">
+        <v>64</v>
+      </c>
+      <c r="D226">
+        <v>18</v>
+      </c>
+      <c r="E226" t="s">
+        <v>35</v>
+      </c>
+      <c r="F226" t="str">
+        <f t="shared" si="48"/>
+        <v>22/07/2024</v>
+      </c>
+      <c r="G226" t="str">
+        <f t="shared" si="49"/>
+        <v>28/07/2024</v>
+      </c>
+      <c r="H226">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>20240722</v>
+      </c>
+      <c r="B227">
+        <v>20240728</v>
+      </c>
+      <c r="C227" t="s">
+        <v>26</v>
+      </c>
+      <c r="D227">
+        <v>13</v>
+      </c>
+      <c r="E227" t="s">
+        <v>39</v>
+      </c>
+      <c r="F227" t="str">
+        <f t="shared" si="48"/>
+        <v>22/07/2024</v>
+      </c>
+      <c r="G227" t="str">
+        <f t="shared" si="49"/>
+        <v>28/07/2024</v>
+      </c>
+      <c r="H227">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>20240722</v>
+      </c>
+      <c r="B228">
+        <v>20240728</v>
+      </c>
+      <c r="C228" t="s">
+        <v>99</v>
+      </c>
+      <c r="D228">
+        <v>10</v>
+      </c>
+      <c r="E228" t="s">
+        <v>100</v>
+      </c>
+      <c r="F228" t="str">
+        <f t="shared" si="48"/>
+        <v>22/07/2024</v>
+      </c>
+      <c r="G228" t="str">
+        <f t="shared" si="49"/>
+        <v>28/07/2024</v>
+      </c>
+      <c r="H228">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>20240722</v>
+      </c>
+      <c r="B229">
+        <v>20240728</v>
+      </c>
+      <c r="C229" t="s">
+        <v>113</v>
+      </c>
+      <c r="D229">
+        <v>5</v>
+      </c>
+      <c r="E229" t="s">
+        <v>39</v>
+      </c>
+      <c r="F229" t="str">
+        <f t="shared" si="48"/>
+        <v>22/07/2024</v>
+      </c>
+      <c r="G229" t="str">
+        <f t="shared" si="49"/>
+        <v>28/07/2024</v>
+      </c>
+      <c r="H229">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>20240722</v>
+      </c>
+      <c r="B230">
+        <v>20240728</v>
+      </c>
+      <c r="C230" t="s">
+        <v>57</v>
+      </c>
+      <c r="D230">
+        <v>4</v>
+      </c>
+      <c r="E230" t="s">
+        <v>39</v>
+      </c>
+      <c r="F230" t="str">
+        <f t="shared" si="48"/>
+        <v>22/07/2024</v>
+      </c>
+      <c r="G230" t="str">
+        <f t="shared" si="49"/>
+        <v>28/07/2024</v>
+      </c>
+      <c r="H230">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>20240722</v>
+      </c>
+      <c r="B231">
+        <v>20240728</v>
+      </c>
+      <c r="C231" t="s">
+        <v>108</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231" t="s">
+        <v>35</v>
+      </c>
+      <c r="F231" t="str">
+        <f t="shared" si="48"/>
+        <v>22/07/2024</v>
+      </c>
+      <c r="G231" t="str">
+        <f t="shared" si="49"/>
+        <v>28/07/2024</v>
+      </c>
+      <c r="H231">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>20240729</v>
+      </c>
+      <c r="B232">
+        <v>20240804</v>
+      </c>
+      <c r="C232" t="s">
+        <v>86</v>
+      </c>
+      <c r="D232">
+        <v>22</v>
+      </c>
+      <c r="E232" t="s">
+        <v>35</v>
+      </c>
+      <c r="F232" t="str">
+        <f t="shared" si="48"/>
+        <v>29/07/2024</v>
+      </c>
+      <c r="G232" t="str">
+        <f t="shared" si="49"/>
+        <v>04/08/2024</v>
+      </c>
+      <c r="H232">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>20240729</v>
+      </c>
+      <c r="B233">
+        <v>20240804</v>
+      </c>
+      <c r="C233" t="s">
+        <v>69</v>
+      </c>
+      <c r="D233">
+        <v>18</v>
+      </c>
+      <c r="E233" t="s">
+        <v>35</v>
+      </c>
+      <c r="F233" t="str">
+        <f t="shared" ref="F233:F239" si="50">_xlfn.CONCAT(RIGHT(A233,2),"/",MID(A233,5,2),"/",LEFT(A233,4))</f>
+        <v>29/07/2024</v>
+      </c>
+      <c r="G233" t="str">
+        <f t="shared" ref="G233:G239" si="51">_xlfn.CONCAT(RIGHT(B233,2),"/",MID(B233,5,2),"/",LEFT(B233,4))</f>
+        <v>04/08/2024</v>
+      </c>
+      <c r="H233">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>20240729</v>
+      </c>
+      <c r="B234">
+        <v>20240804</v>
+      </c>
+      <c r="C234" t="s">
+        <v>28</v>
+      </c>
+      <c r="D234">
+        <v>25</v>
+      </c>
+      <c r="E234" t="s">
+        <v>39</v>
+      </c>
+      <c r="F234" t="str">
+        <f t="shared" si="50"/>
+        <v>29/07/2024</v>
+      </c>
+      <c r="G234" t="str">
+        <f t="shared" si="51"/>
+        <v>04/08/2024</v>
+      </c>
+      <c r="H234">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>20240729</v>
+      </c>
+      <c r="B235">
+        <v>20240804</v>
+      </c>
+      <c r="C235" t="s">
+        <v>26</v>
+      </c>
+      <c r="D235">
+        <v>15</v>
+      </c>
+      <c r="E235" t="s">
+        <v>39</v>
+      </c>
+      <c r="F235" t="str">
+        <f t="shared" si="50"/>
+        <v>29/07/2024</v>
+      </c>
+      <c r="G235" t="str">
+        <f t="shared" si="51"/>
+        <v>04/08/2024</v>
+      </c>
+      <c r="H235">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>20240729</v>
+      </c>
+      <c r="B236">
+        <v>20240804</v>
+      </c>
+      <c r="C236" t="s">
+        <v>57</v>
+      </c>
+      <c r="D236">
+        <v>11</v>
+      </c>
+      <c r="E236" t="s">
+        <v>39</v>
+      </c>
+      <c r="F236" t="str">
+        <f t="shared" si="50"/>
+        <v>29/07/2024</v>
+      </c>
+      <c r="G236" t="str">
+        <f t="shared" si="51"/>
+        <v>04/08/2024</v>
+      </c>
+      <c r="H236">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>20240729</v>
+      </c>
+      <c r="B237">
+        <v>20240804</v>
+      </c>
+      <c r="C237" t="s">
+        <v>54</v>
+      </c>
+      <c r="D237">
+        <v>11</v>
+      </c>
+      <c r="E237" t="s">
+        <v>39</v>
+      </c>
+      <c r="F237" t="str">
+        <f t="shared" si="50"/>
+        <v>29/07/2024</v>
+      </c>
+      <c r="G237" t="str">
+        <f t="shared" si="51"/>
+        <v>04/08/2024</v>
+      </c>
+      <c r="H237">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>20240729</v>
+      </c>
+      <c r="B238">
+        <v>20240804</v>
+      </c>
+      <c r="C238" t="s">
+        <v>113</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+      <c r="E238" t="s">
+        <v>39</v>
+      </c>
+      <c r="F238" t="str">
+        <f t="shared" si="50"/>
+        <v>29/07/2024</v>
+      </c>
+      <c r="G238" t="str">
+        <f t="shared" si="51"/>
+        <v>04/08/2024</v>
+      </c>
+      <c r="H238">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>20240729</v>
+      </c>
+      <c r="B239">
+        <v>20240804</v>
+      </c>
+      <c r="C239" t="s">
+        <v>64</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+      <c r="E239" t="s">
+        <v>35</v>
+      </c>
+      <c r="F239" t="str">
+        <f t="shared" si="50"/>
+        <v>29/07/2024</v>
+      </c>
+      <c r="G239" t="str">
+        <f t="shared" si="51"/>
+        <v>04/08/2024</v>
+      </c>
+      <c r="H239">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
